--- a/articles/博客浏览量统计.xlsx
+++ b/articles/博客浏览量统计.xlsx
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -479,9 +479,10 @@
     <col min="20" max="20" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="0" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="C1" s="3">
         <v>43193</v>
       </c>
@@ -545,8 +546,11 @@
       <c r="W1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="3">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -576,8 +580,11 @@
       <c r="W2" s="5">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -607,8 +614,11 @@
       <c r="W3" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -638,8 +648,11 @@
       <c r="W4" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -669,8 +682,11 @@
       <c r="W5" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -700,8 +716,11 @@
       <c r="W6" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -731,8 +750,11 @@
       <c r="W7" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -766,8 +788,11 @@
       <c r="W8" s="5">
         <v>517</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -803,8 +828,11 @@
       <c r="W9" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -840,8 +868,11 @@
       <c r="W10" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -897,8 +928,11 @@
       <c r="W11" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -968,8 +1002,11 @@
       <c r="W12" s="5">
         <v>1367</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1039,8 +1076,11 @@
       <c r="W13" s="5">
         <v>314</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1110,8 +1150,11 @@
       <c r="W14" s="5">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1181,8 +1224,11 @@
       <c r="W15" s="5">
         <v>464</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="W16" s="5">
         <v>1355</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1323,8 +1372,11 @@
       <c r="W17" s="5">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1393,6 +1445,9 @@
       </c>
       <c r="W18" s="5">
         <v>4342</v>
+      </c>
+      <c r="X18">
+        <v>4530</v>
       </c>
     </row>
   </sheetData>
